--- a/artfynd/A 9135-2019.xlsx
+++ b/artfynd/A 9135-2019.xlsx
@@ -2731,10 +2731,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>57165081</v>
+        <v>57165107</v>
       </c>
       <c r="B19" t="n">
-        <v>98431</v>
+        <v>103178</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222771</v>
+        <v>221141</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2767,14 +2767,14 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ryrsjön, V om kärret vid N-änden, Dls</t>
+          <t>Ryrsjön, N om kärret vid N-änden, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>355806.6413673137</v>
+        <v>355873.7831283917</v>
       </c>
       <c r="R19" t="n">
-        <v>6522113.275537753</v>
+        <v>6522353.906784947</v>
       </c>
       <c r="S19" t="n">
         <v>100</v>
@@ -2847,14 +2847,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>57165107</v>
+        <v>17006582</v>
       </c>
       <c r="B20" t="n">
-        <v>103178</v>
+        <v>108194</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2863,16 +2863,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221141</v>
+        <v>219711</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2883,17 +2883,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ryrsjön, N om kärret vid N-änden, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>355873.7831283917</v>
+        <v>355809.9770545617</v>
       </c>
       <c r="R20" t="n">
-        <v>6522353.906784947</v>
+        <v>6522272.305476168</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1976-01-01</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1976-12-31</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2935,6 +2935,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Pro-Natura / Lst VGL</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2943,30 +2948,31 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Krafftledlingsgata vid tallbestånd</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Mora Aronsson</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Gunilla Almered Olsson</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Flora över Dal 1981</t>
-        </is>
-      </c>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>53442047</v>
+        <v>17006586</v>
       </c>
       <c r="B21" t="n">
-        <v>96361</v>
+        <v>103178</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2979,16 +2985,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>219864</v>
+        <v>221141</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2996,31 +3002,20 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Ryrsvägen, Sjövik, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>355771.1552752204</v>
+        <v>355809.9770545617</v>
       </c>
       <c r="R21" t="n">
-        <v>6522080.901423137</v>
+        <v>6522272.305476168</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3044,7 +3039,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3054,7 +3049,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3064,7 +3059,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>I västra vägkanten och ett tiotal meter från vägen upp på berget. Blomning och knopp.</t>
+          <t>Pro-Natura / Lst VGL</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3075,26 +3070,31 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Krafftledlingsgata vid tallbestånd</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Karin Sund</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Karin Sund</t>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17006582</v>
+        <v>6782284</v>
       </c>
       <c r="B22" t="n">
-        <v>108194</v>
+        <v>96361</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219711</v>
+        <v>219864</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3125,19 +3125,30 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>ryr vägkant, Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>355809.9770545617</v>
+        <v>355806.0018888362</v>
       </c>
       <c r="R22" t="n">
-        <v>6522272.305476168</v>
+        <v>6522277.119435838</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3161,27 +3172,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Pro-Natura / Lst VGL</t>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3192,31 +3203,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Krafftledlingsgata vid tallbestånd</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Annelie Thor</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+          <t>Annelie Thor</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17006575</v>
+        <v>71461916</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>99885</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3225,41 +3231,56 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>1879</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trollsmultron</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Drymocallis rupestris</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(L.) Soják</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>Eliseberg, 400 V om, Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>355670.2682829123</v>
+        <v>355879.1513562817</v>
       </c>
       <c r="R23" t="n">
-        <v>6522327.805095111</v>
+        <v>6522915.607204087</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3281,9 +3302,14 @@
           <t>Skållerud</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>OD-Mel-0333</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2018-05-21</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3293,7 +3319,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2018-05-21</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3301,11 +3327,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Pro-Natura / Lst VGL</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3314,35 +3335,34 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>Blandbarrskog</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Kjell Eriksson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17006586</v>
+        <v>57165081</v>
       </c>
       <c r="B24" t="n">
-        <v>103178</v>
+        <v>98431</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3351,16 +3371,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221141</v>
+        <v>222771</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3371,17 +3391,17 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>Ryrsjön, V om kärret vid N-änden, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>355809.9770545617</v>
+        <v>355806.6413673137</v>
       </c>
       <c r="R24" t="n">
-        <v>6522272.305476168</v>
+        <v>6522113.275537753</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3405,7 +3425,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>1976-01-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3415,7 +3435,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>1976-12-31</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3423,11 +3443,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Pro-Natura / Lst VGL</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3436,28 +3451,27 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Krafftledlingsgata vid tallbestånd</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Mora Aronsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Gunilla Almered Olsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Flora över Dal 1981</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6782284</v>
+        <v>53442047</v>
       </c>
       <c r="B25" t="n">
         <v>96361</v>
@@ -3490,31 +3504,31 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>ryr vägkant, Dls</t>
+          <t>Ryrsvägen, Sjövik, Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>355806.0018888362</v>
+        <v>355771.1552752204</v>
       </c>
       <c r="R25" t="n">
-        <v>6522277.119435838</v>
+        <v>6522080.901423137</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3538,27 +3552,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>vägkant</t>
+          <t>I västra vägkanten och ett tiotal meter från vägen upp på berget. Blomning och knopp.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3573,22 +3587,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Annelie Thor</t>
+          <t>Karin Sund</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Annelie Thor</t>
+          <t>Karin Sund</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>71461916</v>
+        <v>17006575</v>
       </c>
       <c r="B26" t="n">
-        <v>99885</v>
+        <v>98520</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3597,56 +3611,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1879</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trollsmultron</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Drymocallis rupestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Soják</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Eliseberg, 400 V om, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>355879.1513562817</v>
+        <v>355670.2682829123</v>
       </c>
       <c r="R26" t="n">
-        <v>6522915.607204087</v>
+        <v>6522327.805095111</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3668,14 +3667,9 @@
           <t>Skållerud</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>OD-Mel-0333</t>
-        </is>
-      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-05-21</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3685,7 +3679,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-05-21</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3693,6 +3687,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Pro-Natura / Lst VGL</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3701,23 +3700,24 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Blandbarrskog</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 9135-2019.xlsx
+++ b/artfynd/A 9135-2019.xlsx
@@ -2731,10 +2731,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>57165107</v>
+        <v>57165081</v>
       </c>
       <c r="B19" t="n">
-        <v>103178</v>
+        <v>98431</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221141</v>
+        <v>222771</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2767,14 +2767,14 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ryrsjön, N om kärret vid N-änden, Dls</t>
+          <t>Ryrsjön, V om kärret vid N-änden, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>355873.7831283917</v>
+        <v>355806.6413673137</v>
       </c>
       <c r="R19" t="n">
-        <v>6522353.906784947</v>
+        <v>6522113.275537753</v>
       </c>
       <c r="S19" t="n">
         <v>100</v>
@@ -2847,14 +2847,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17006582</v>
+        <v>57165107</v>
       </c>
       <c r="B20" t="n">
-        <v>108194</v>
+        <v>103178</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2863,16 +2863,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219711</v>
+        <v>221141</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2883,17 +2883,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>Ryrsjön, N om kärret vid N-änden, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>355809.9770545617</v>
+        <v>355873.7831283917</v>
       </c>
       <c r="R20" t="n">
-        <v>6522272.305476168</v>
+        <v>6522353.906784947</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>1976-01-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>1976-12-31</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2935,11 +2935,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Pro-Natura / Lst VGL</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2948,31 +2943,30 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Krafftledlingsgata vid tallbestånd</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Mora Aronsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Gunilla Almered Olsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Flora över Dal 1981</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17006586</v>
+        <v>53442047</v>
       </c>
       <c r="B21" t="n">
-        <v>103178</v>
+        <v>96361</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2985,16 +2979,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221141</v>
+        <v>219864</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3002,20 +2996,31 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>Ryrsvägen, Sjövik, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>355809.9770545617</v>
+        <v>355771.1552752204</v>
       </c>
       <c r="R21" t="n">
-        <v>6522272.305476168</v>
+        <v>6522080.901423137</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3039,7 +3044,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3049,7 +3054,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3059,7 +3064,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Pro-Natura / Lst VGL</t>
+          <t>I västra vägkanten och ett tiotal meter från vägen upp på berget. Blomning och knopp.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3070,31 +3075,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Krafftledlingsgata vid tallbestånd</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Karin Sund</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+          <t>Karin Sund</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6782284</v>
+        <v>17006582</v>
       </c>
       <c r="B22" t="n">
-        <v>96361</v>
+        <v>108194</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219864</v>
+        <v>219711</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3125,30 +3125,19 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>ryr vägkant, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>355806.0018888362</v>
+        <v>355809.9770545617</v>
       </c>
       <c r="R22" t="n">
-        <v>6522277.119435838</v>
+        <v>6522272.305476168</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3172,27 +3161,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>vägkant</t>
+          <t>Pro-Natura / Lst VGL</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3203,26 +3192,31 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Krafftledlingsgata vid tallbestånd</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Annelie Thor</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Annelie Thor</t>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>71461916</v>
+        <v>17006575</v>
       </c>
       <c r="B23" t="n">
-        <v>99885</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3231,56 +3225,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1879</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trollsmultron</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Drymocallis rupestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Soják</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Eliseberg, 400 V om, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>355879.1513562817</v>
+        <v>355670.2682829123</v>
       </c>
       <c r="R23" t="n">
-        <v>6522915.607204087</v>
+        <v>6522327.805095111</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3302,14 +3281,9 @@
           <t>Skållerud</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>OD-Mel-0333</t>
-        </is>
-      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-05-21</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3319,7 +3293,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-05-21</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3327,6 +3301,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Pro-Natura / Lst VGL</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3335,34 +3314,35 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Blandbarrskog</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>57165081</v>
+        <v>17006586</v>
       </c>
       <c r="B24" t="n">
-        <v>98431</v>
+        <v>103178</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3371,16 +3351,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222771</v>
+        <v>221141</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3391,17 +3371,17 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Ryrsjön, V om kärret vid N-änden, Dls</t>
+          <t>Ödegården NO, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>355806.6413673137</v>
+        <v>355809.9770545617</v>
       </c>
       <c r="R24" t="n">
-        <v>6522113.275537753</v>
+        <v>6522272.305476168</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3425,7 +3405,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1976-01-01</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3435,7 +3415,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1976-12-31</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3443,6 +3423,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Pro-Natura / Lst VGL</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3451,27 +3436,28 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Krafftledlingsgata vid tallbestånd</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Mora Aronsson</t>
+          <t>Kurt-Anders Johansson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Gunilla Almered Olsson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Flora över Dal 1981</t>
-        </is>
-      </c>
+          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>53442047</v>
+        <v>6782284</v>
       </c>
       <c r="B25" t="n">
         <v>96361</v>
@@ -3504,31 +3490,31 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ryrsvägen, Sjövik, Dls</t>
+          <t>ryr vägkant, Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>355771.1552752204</v>
+        <v>355806.0018888362</v>
       </c>
       <c r="R25" t="n">
-        <v>6522080.901423137</v>
+        <v>6522277.119435838</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3552,27 +3538,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>I västra vägkanten och ett tiotal meter från vägen upp på berget. Blomning och knopp.</t>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3587,22 +3573,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Karin Sund</t>
+          <t>Annelie Thor</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Karin Sund</t>
+          <t>Annelie Thor</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17006575</v>
+        <v>71461916</v>
       </c>
       <c r="B26" t="n">
-        <v>98520</v>
+        <v>99885</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3611,41 +3597,56 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>1879</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trollsmultron</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Drymocallis rupestris</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) Soják</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Ödegården NO, Dls</t>
+          <t>Eliseberg, 400 V om, Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>355670.2682829123</v>
+        <v>355879.1513562817</v>
       </c>
       <c r="R26" t="n">
-        <v>6522327.805095111</v>
+        <v>6522915.607204087</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3667,9 +3668,14 @@
           <t>Skållerud</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>OD-Mel-0333</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2018-05-21</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3679,7 +3685,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2018-05-21</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3687,11 +3693,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Pro-Natura / Lst VGL</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3700,24 +3701,23 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Blandbarrskog</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kurt-Anders Johansson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Anita Stridvall, Kurt-Anders Johansson, Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Kjell Eriksson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
